--- a/extras/apuntes-winmips.xlsx
+++ b/extras/apuntes-winmips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gretoide\Desktop\facultad\SI105 - Arquitectura de computadoras\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37B95E0-795E-4ABC-9A5E-26A8A6C373CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FDAFC3-5570-4537-B674-56E54D56D051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{E82C7E89-FED9-48E0-9EBE-04751DFEAEFA}"/>
+    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{E82C7E89-FED9-48E0-9EBE-04751DFEAEFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -741,17 +741,37 @@
     </r>
   </si>
   <si>
-    <t>calcular cpi</t>
-  </si>
-  <si>
     <t>instruction fetch - toma de la instrucción, aumenta el pc y verifica el branch target buffer (si está habilitado)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">calcular cpi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(cant instrucciones + atascos + 4 / cant instrucciones)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,6 +801,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -903,9 +931,30 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -915,29 +964,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1261,10 +1289,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:H37"/>
+  <dimension ref="C1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G36" sqref="D1:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1279,15 +1307,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="4:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D2" s="10" t="s">
@@ -1466,26 +1494,26 @@
       </c>
     </row>
     <row r="14" spans="4:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="4:8" ht="31" x14ac:dyDescent="0.35">
       <c r="D15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="4:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D16" s="8" t="s">
@@ -1506,10 +1534,10 @@
         <v>30</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="4:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D18" s="8" t="s">
@@ -1519,10 +1547,10 @@
         <v>31</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="4:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D19" s="8" t="s">
@@ -1532,31 +1560,31 @@
         <v>32</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="4:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="4:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="4:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="4:8" ht="77.5" x14ac:dyDescent="0.35">
       <c r="D23" s="8" t="s">
@@ -1566,8 +1594,8 @@
         <v>64</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="4:8" ht="124" x14ac:dyDescent="0.35">
       <c r="D24" s="8" t="s">
@@ -1577,8 +1605,8 @@
         <v>66</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="4:8" ht="31" x14ac:dyDescent="0.35">
       <c r="D25" s="8" t="s">
@@ -1588,24 +1616,24 @@
         <v>65</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="4:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="4:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="4:8" ht="31" x14ac:dyDescent="0.35">
       <c r="D28" s="5" t="s">
@@ -1615,8 +1643,8 @@
         <v>41</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="4:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="D29" s="5" t="s">
@@ -1626,8 +1654,8 @@
         <v>42</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="4:8" ht="62" x14ac:dyDescent="0.35">
       <c r="D30" s="5" t="s">
@@ -1637,10 +1665,10 @@
         <v>63</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="22"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="4:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D31" s="9"/>
@@ -1654,10 +1682,10 @@
       </c>
     </row>
     <row r="32" spans="4:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="9"/>
       <c r="G32" s="8" t="s">
         <v>74</v>
@@ -1705,7 +1733,7 @@
       </c>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="4:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D36" s="7" t="s">
         <v>49</v>
       </c>
@@ -1714,7 +1742,7 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H36" s="23"/>
     </row>
@@ -1722,24 +1750,28 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H28"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G36:H38"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>